--- a/src/test/resources/dataUpload/test_fout_sheet_1.xlsx
+++ b/src/test/resources/dataUpload/test_fout_sheet_1.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\CompanySharingExternalHipster\src\test\resources\dataUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13668" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLEAR_SHEET" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="F_Outputs" sheetId="1" r:id="rId2"/>
+    <sheet name="F_Outputs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,58 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
-  <si>
-    <t>FOUNTAIN_INSTANCE_URL</t>
-  </si>
-  <si>
-    <t>inputRunName</t>
-  </si>
-  <si>
-    <t>inputRunId</t>
-  </si>
-  <si>
-    <t>outputRunName</t>
-  </si>
-  <si>
-    <t>outputRunId</t>
-  </si>
-  <si>
-    <t>None_XLSPF</t>
-  </si>
-  <si>
-    <t>0_XLSPF</t>
-  </si>
-  <si>
-    <t>F_Inputs_TABLE_ID</t>
-  </si>
-  <si>
-    <t>7312_XLSPF</t>
-  </si>
-  <si>
-    <t>F_Inputs_TEAM</t>
-  </si>
-  <si>
-    <t>IMT_XLSPF</t>
-  </si>
-  <si>
-    <t>F_Inputs_USER</t>
-  </si>
-  <si>
-    <t>OFWAT\adam.edgar_XLSPF</t>
-  </si>
-  <si>
-    <t>F_Inputs_NAME</t>
-  </si>
-  <si>
-    <t>test_in_XLSPF</t>
-  </si>
-  <si>
-    <t>F_Inputs_TITLE</t>
-  </si>
-  <si>
-    <t>_XLSPF</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Acronym</t>
   </si>
@@ -153,97 +101,13 @@
     <t>BN895</t>
   </si>
   <si>
-    <t>inputSheetLastUpdated</t>
-  </si>
-  <si>
-    <t>EXTERNAL_MODEL_NAME</t>
-  </si>
-  <si>
-    <t>ACRONYM_TEST_XLSPF</t>
-  </si>
-  <si>
-    <t>EXTERNAL_MODEL_CODE</t>
-  </si>
-  <si>
-    <t>EXTERNAL_MODEL_FAMILY</t>
-  </si>
-  <si>
-    <t>JR_XLSPF</t>
-  </si>
-  <si>
-    <t>FOUNTAIN_REPORT</t>
-  </si>
-  <si>
-    <t>1723_XLSPF</t>
-  </si>
-  <si>
-    <t>tagId</t>
-  </si>
-  <si>
-    <t>tagName</t>
-  </si>
-  <si>
-    <t>latest_XLSPF</t>
-  </si>
-  <si>
-    <t>companyId</t>
-  </si>
-  <si>
-    <t>59_XLSPF</t>
-  </si>
-  <si>
-    <t>companyName</t>
-  </si>
-  <si>
-    <t>Aero Orange_XLSPF</t>
-  </si>
-  <si>
     <t>test_out</t>
-  </si>
-  <si>
-    <t>F_Outputs_TABLE_ID</t>
-  </si>
-  <si>
-    <t>F_Outputs_TEAM</t>
-  </si>
-  <si>
-    <t>F_Outputs_USER</t>
-  </si>
-  <si>
-    <t>F_Outputs_NAME</t>
-  </si>
-  <si>
-    <t>test_out_XLSPF</t>
-  </si>
-  <si>
-    <t>F_Outputs_TITLE</t>
-  </si>
-  <si>
-    <t>outputSheetLastSent</t>
-  </si>
-  <si>
-    <t>7313_XLSPF</t>
-  </si>
-  <si>
-    <t>Cyclical base run_XLSPF</t>
-  </si>
-  <si>
-    <t>58_XLSPF</t>
-  </si>
-  <si>
-    <t>17/06/2016 17:56:12_XLSPF</t>
-  </si>
-  <si>
-    <t>17/06/2016 18:09:09_XLSPF</t>
-  </si>
-  <si>
-    <t>http://fnttest202:8082/Fountain/rest-services_XLSPF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,222 +423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -793,196 +442,196 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3"/>
     </row>
